--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_bar.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_bar.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A0C42D-6C4C-4E52-A9A2-14D3ABDA251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,25 +121,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,13 +483,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,17 +739,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,19 +1051,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,91 +1159,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>15.365354514871871</v>
+        <v>15.3653545148719</v>
       </c>
       <c r="C2">
-        <v>15.162883040446875</v>
+        <v>15.1628100839438</v>
       </c>
       <c r="D2">
-        <v>15.103597580787</v>
+        <v>15.1035239832309</v>
       </c>
       <c r="E2">
-        <v>15.177187845170167</v>
+        <v>15.1771132629994</v>
       </c>
       <c r="F2">
-        <v>15.232400103838504</v>
+        <v>15.2322328618772</v>
       </c>
       <c r="G2">
-        <v>15.175603094000538</v>
+        <v>15.1751782680656</v>
       </c>
       <c r="H2">
-        <v>15.112879665965378</v>
+        <v>15.1124251842753</v>
       </c>
       <c r="I2">
-        <v>15.040089894414377</v>
+        <v>15.0396342348947</v>
       </c>
       <c r="J2">
-        <v>15.000617552104442</v>
+        <v>15.0001627162917</v>
       </c>
       <c r="K2">
-        <v>14.957857678033077</v>
+        <v>14.9574040955311</v>
       </c>
       <c r="L2">
-        <v>14.919133582529071</v>
+        <v>14.9186811690777</v>
       </c>
       <c r="M2">
-        <v>14.871094073765988</v>
+        <v>14.8706431164571</v>
       </c>
       <c r="N2">
-        <v>14.819407436975027</v>
+        <v>14.8189580471045</v>
       </c>
       <c r="O2">
-        <v>14.768511389685202</v>
+        <v>14.7680635433718</v>
       </c>
       <c r="P2">
-        <v>14.722044796729451</v>
+        <v>14.7215983596619</v>
       </c>
       <c r="Q2">
-        <v>14.675120211970256</v>
+        <v>14.6746751980551</v>
       </c>
       <c r="R2">
-        <v>14.631518057002605</v>
+        <v>14.6310743655037</v>
       </c>
       <c r="S2">
-        <v>14.594052596790346</v>
+        <v>14.5936100416327</v>
       </c>
       <c r="T2">
-        <v>14.564879203481537</v>
+        <v>14.5644375332282</v>
       </c>
       <c r="U2">
-        <v>14.539587569007232</v>
+        <v>14.5391466659568</v>
       </c>
       <c r="V2">
-        <v>14.516656885929425</v>
+        <v>14.5162166784985</v>
       </c>
       <c r="W2">
-        <v>14.507320749277513</v>
+        <v>14.5068808252369</v>
       </c>
       <c r="X2">
-        <v>14.505891459347293</v>
+        <v>14.5054515789483</v>
       </c>
       <c r="Y2">
-        <v>14.51811541444618</v>
+        <v>14.517675163684</v>
       </c>
       <c r="Z2">
-        <v>14.535665257292175</v>
+        <v>14.5352244746854</v>
       </c>
       <c r="AA2">
-        <v>14.559770585321777</v>
+        <v>14.5593290721038</v>
       </c>
       <c r="AB2">
-        <v>14.596690906742511</v>
+        <v>14.596248274313</v>
       </c>
       <c r="AC2">
-        <v>14.639007805208539</v>
+        <v>14.6385638899537</v>
       </c>
       <c r="AD2">
-        <v>14.693279511658538</v>
+        <v>14.6928339510826</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -633,91 +1251,91 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>4.2807731458650274E-3</v>
+        <v>0.00428077314586503</v>
       </c>
       <c r="C3">
-        <v>4.8023127681689056E-3</v>
+        <v>0.00480233587470022</v>
       </c>
       <c r="D3">
-        <v>5.0332951146201789E-3</v>
+        <v>0.00503331964122867</v>
       </c>
       <c r="E3">
-        <v>4.846504443801458E-3</v>
+        <v>0.00484652826011063</v>
       </c>
       <c r="F3">
-        <v>4.6033815697265907E-3</v>
+        <v>0.00460343211245197</v>
       </c>
       <c r="G3">
-        <v>4.5850355841299401E-3</v>
+        <v>0.0045851639412401</v>
       </c>
       <c r="H3">
-        <v>4.5638737504933346E-3</v>
+        <v>0.0045640110015983</v>
       </c>
       <c r="I3">
-        <v>4.5658429238417059E-3</v>
+        <v>0.00456598125631447</v>
       </c>
       <c r="J3">
-        <v>4.4834964147251908E-3</v>
+        <v>0.00448363236356616</v>
       </c>
       <c r="K3">
-        <v>4.4156567253181072E-3</v>
+        <v>0.00441579062987883</v>
       </c>
       <c r="L3">
-        <v>4.3528560651439315E-3</v>
+        <v>0.00435298806680099</v>
       </c>
       <c r="M3">
-        <v>4.3148836542951201E-3</v>
+        <v>0.00431501450460908</v>
       </c>
       <c r="N3">
-        <v>4.3014658852633782E-3</v>
+        <v>0.00430159632865832</v>
       </c>
       <c r="O3">
-        <v>4.2968677393429681E-3</v>
+        <v>0.00429699804324979</v>
       </c>
       <c r="P3">
-        <v>4.3046105447863284E-3</v>
+        <v>0.00430474108344535</v>
       </c>
       <c r="Q3">
-        <v>4.3190405281578912E-3</v>
+        <v>0.00431917150435388</v>
       </c>
       <c r="R3">
-        <v>4.3379309637911418E-3</v>
+        <v>0.0043380625127836</v>
       </c>
       <c r="S3">
-        <v>4.3631273196283963E-3</v>
+        <v>0.00436325963264025</v>
       </c>
       <c r="T3">
-        <v>4.3841802793724389E-3</v>
+        <v>0.0043843132307487</v>
       </c>
       <c r="U3">
-        <v>4.408994456271683E-3</v>
+        <v>0.00440912816006803</v>
       </c>
       <c r="V3">
-        <v>4.4376493591327098E-3</v>
+        <v>0.00443778393181558</v>
       </c>
       <c r="W3">
-        <v>4.4596028121787826E-3</v>
+        <v>0.00445973805051925</v>
       </c>
       <c r="X3">
-        <v>4.4723550687428559E-3</v>
+        <v>0.00447249069370574</v>
       </c>
       <c r="Y3">
-        <v>4.4698126796294466E-3</v>
+        <v>0.00446994822739564</v>
       </c>
       <c r="Z3">
-        <v>4.4578783627698135E-3</v>
+        <v>0.00445801354852142</v>
       </c>
       <c r="AA3">
-        <v>4.435278981879745E-3</v>
+        <v>0.00443541348219125</v>
       </c>
       <c r="AB3">
-        <v>4.4011140322991558E-3</v>
+        <v>0.00440124749644417</v>
       </c>
       <c r="AC3">
-        <v>4.350558123610699E-3</v>
+        <v>0.00435069005452499</v>
       </c>
       <c r="AD3">
-        <v>4.2807384185360696E-3</v>
+        <v>0.00428086823204116</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -725,91 +1343,91 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>5.7439225372065408E-3</v>
+        <v>0.00574392253720654</v>
       </c>
       <c r="C4">
-        <v>6.241006328727935E-3</v>
+        <v>0.00624103635759426</v>
       </c>
       <c r="D4">
-        <v>6.3409085627467669E-3</v>
+        <v>0.0063409394611897</v>
       </c>
       <c r="E4">
-        <v>6.2454454636129584E-3</v>
+        <v>0.00624547615448755</v>
       </c>
       <c r="F4">
-        <v>6.1442949703374274E-3</v>
+        <v>0.00614436243148716</v>
       </c>
       <c r="G4">
-        <v>6.161309126611508E-3</v>
+        <v>0.00616148161116911</v>
       </c>
       <c r="H4">
-        <v>6.1835804678671939E-3</v>
+        <v>0.00618376642902613</v>
       </c>
       <c r="I4">
-        <v>6.2173303742868837E-3</v>
+        <v>0.00621751874228356</v>
       </c>
       <c r="J4">
-        <v>6.2130066205493811E-3</v>
+        <v>0.00621319501170015</v>
       </c>
       <c r="K4">
-        <v>6.2132642476217057E-3</v>
+        <v>0.00621345266453712</v>
       </c>
       <c r="L4">
-        <v>6.2100889596807358E-3</v>
+        <v>0.00621027728247867</v>
       </c>
       <c r="M4">
-        <v>6.2175672784208691E-3</v>
+        <v>0.00621775582826268</v>
       </c>
       <c r="N4">
-        <v>6.2302604212313307E-3</v>
+        <v>0.00623044935596716</v>
       </c>
       <c r="O4">
-        <v>6.2426483839804914E-3</v>
+        <v>0.006242837694316</v>
       </c>
       <c r="P4">
-        <v>6.2514745169387417E-3</v>
+        <v>0.00625166409485569</v>
       </c>
       <c r="Q4">
-        <v>6.2620188631883822E-3</v>
+        <v>0.00626220876078359</v>
       </c>
       <c r="R4">
-        <v>6.271048382328644E-3</v>
+        <v>0.00627123855365762</v>
       </c>
       <c r="S4">
-        <v>6.2754140197058611E-3</v>
+        <v>0.00627560432332727</v>
       </c>
       <c r="T4">
-        <v>6.2724808925650067E-3</v>
+        <v>0.00627267110713514</v>
       </c>
       <c r="U4">
-        <v>6.2665860215989277E-3</v>
+        <v>0.00626677605729743</v>
       </c>
       <c r="V4">
-        <v>6.2589431485750484E-3</v>
+        <v>0.00625913295238858</v>
       </c>
       <c r="W4">
-        <v>6.238753267464538E-3</v>
+        <v>0.00623894245889571</v>
       </c>
       <c r="X4">
-        <v>6.2121047025715977E-3</v>
+        <v>0.00621229308575155</v>
       </c>
       <c r="Y4">
-        <v>6.17304310683692E-3</v>
+        <v>0.00617323030533129</v>
       </c>
       <c r="Z4">
-        <v>6.1295169463098558E-3</v>
+        <v>0.00612970282472284</v>
       </c>
       <c r="AA4">
-        <v>6.0800963663475037E-3</v>
+        <v>0.00608028074592286</v>
       </c>
       <c r="AB4">
-        <v>6.0194913436822624E-3</v>
+        <v>0.00601967388525235</v>
       </c>
       <c r="AC4">
-        <v>5.9551700661488946E-3</v>
+        <v>0.00595535065700856</v>
       </c>
       <c r="AD4">
-        <v>5.8811658745679951E-3</v>
+        <v>0.00588134422107777</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -817,91 +1435,91 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>0.38913918795020591</v>
+        <v>0.389139188041278</v>
       </c>
       <c r="C5">
-        <v>0.3951049829295683</v>
+        <v>0.395105765156124</v>
       </c>
       <c r="D5">
-        <v>0.39419081421702584</v>
+        <v>0.394191621485018</v>
       </c>
       <c r="E5">
-        <v>0.2720132877076134</v>
+        <v>0.285962479742788</v>
       </c>
       <c r="F5">
-        <v>0.15363364491590481</v>
+        <v>0.147022576973128</v>
       </c>
       <c r="G5">
-        <v>0.12263050459626525</v>
+        <v>0.118983409807451</v>
       </c>
       <c r="H5">
-        <v>0.11411783193006118</v>
+        <v>0.112710169800658</v>
       </c>
       <c r="I5">
-        <v>0.11174485502842252</v>
+        <v>0.111230888132597</v>
       </c>
       <c r="J5">
-        <v>0.11082161529763859</v>
+        <v>0.110636846318759</v>
       </c>
       <c r="K5">
-        <v>0.11046213449441449</v>
+        <v>0.110398060750788</v>
       </c>
       <c r="L5">
-        <v>0.11026703017043223</v>
+        <v>0.110234985632227</v>
       </c>
       <c r="M5">
-        <v>0.11019838471533115</v>
+        <v>0.110182222518397</v>
       </c>
       <c r="N5">
-        <v>0.11020308850878192</v>
+        <v>0.110199110973833</v>
       </c>
       <c r="O5">
-        <v>0.11022488562681342</v>
+        <v>0.110221459635502</v>
       </c>
       <c r="P5">
-        <v>0.11025549314825492</v>
+        <v>0.110249569998912</v>
       </c>
       <c r="Q5">
-        <v>0.11032176553898218</v>
+        <v>0.110316169304436</v>
       </c>
       <c r="R5">
-        <v>0.11042267754150789</v>
+        <v>0.110416683880001</v>
       </c>
       <c r="S5">
-        <v>0.11053989301989998</v>
+        <v>0.110534326514649</v>
       </c>
       <c r="T5">
-        <v>0.11065525807209425</v>
+        <v>0.110651554543972</v>
       </c>
       <c r="U5">
-        <v>0.11078638051515126</v>
+        <v>0.110781422071973</v>
       </c>
       <c r="V5">
-        <v>0.11092336571278606</v>
+        <v>0.110920192707917</v>
       </c>
       <c r="W5">
-        <v>0.11104422348075969</v>
+        <v>0.111039361503014</v>
       </c>
       <c r="X5">
-        <v>0.11117336913893065</v>
+        <v>0.111168116532681</v>
       </c>
       <c r="Y5">
-        <v>0.11128649691076836</v>
+        <v>0.111279358374092</v>
       </c>
       <c r="Z5">
-        <v>0.11139464017777669</v>
+        <v>0.111390896173796</v>
       </c>
       <c r="AA5">
-        <v>0.11148833190190169</v>
+        <v>0.11148724513363</v>
       </c>
       <c r="AB5">
-        <v>0.11155665705794569</v>
+        <v>0.111547893339825</v>
       </c>
       <c r="AC5">
-        <v>0.11162914096922574</v>
+        <v>0.111625831488095</v>
       </c>
       <c r="AD5">
-        <v>0.11167960824473289</v>
+        <v>0.111674857613415</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -909,94 +1527,95 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.44716388363327747</v>
+        <v>0.44716388372435</v>
       </c>
       <c r="C6">
-        <v>0.45414830202646511</v>
+        <v>0.454149137388418</v>
       </c>
       <c r="D6">
-        <v>0.4535650178943928</v>
+        <v>0.453565880587436</v>
       </c>
       <c r="E6">
-        <v>0.3311052376150278</v>
+        <v>0.345054484157386</v>
       </c>
       <c r="F6">
-        <v>0.21238132145596883</v>
+        <v>0.205770371517067</v>
       </c>
       <c r="G6">
-        <v>0.1813768493070067</v>
+        <v>0.17773005535986</v>
       </c>
       <c r="H6">
-        <v>0.1728652861484217</v>
+        <v>0.171457947231282</v>
       </c>
       <c r="I6">
-        <v>0.17052802832655112</v>
+        <v>0.170014388131195</v>
       </c>
       <c r="J6">
-        <v>0.16951811833291319</v>
+        <v>0.169333673694025</v>
       </c>
       <c r="K6">
-        <v>0.16909105546735428</v>
+        <v>0.169027304045204</v>
       </c>
       <c r="L6">
-        <v>0.16882997519525689</v>
+        <v>0.168798250981507</v>
       </c>
       <c r="M6">
-        <v>0.16873083564804714</v>
+        <v>0.168714992851269</v>
       </c>
       <c r="N6">
-        <v>0.16873481481527663</v>
+        <v>0.168731156658459</v>
       </c>
       <c r="O6">
-        <v>0.16876440175013685</v>
+        <v>0.168761295373068</v>
       </c>
       <c r="P6">
-        <v>0.16881157820997997</v>
+        <v>0.168805975177213</v>
       </c>
       <c r="Q6">
-        <v>0.16890282493032849</v>
+        <v>0.168897549569573</v>
       </c>
       <c r="R6">
-        <v>0.16903165688762767</v>
+        <v>0.169025984946442</v>
       </c>
       <c r="S6">
-        <v>0.16917843435923424</v>
+        <v>0.169173190470616</v>
       </c>
       <c r="T6">
-        <v>0.16931191924403169</v>
+        <v>0.169308538881856</v>
       </c>
       <c r="U6">
-        <v>0.16946196099302185</v>
+        <v>0.169457326289339</v>
       </c>
       <c r="V6">
-        <v>0.16961995822049381</v>
+        <v>0.169617109592121</v>
       </c>
       <c r="W6">
-        <v>0.16974257956040303</v>
+        <v>0.169738042012429</v>
       </c>
       <c r="X6">
-        <v>0.16985782891024509</v>
+        <v>0.169852900312138</v>
       </c>
       <c r="Y6">
-        <v>0.16992935269723475</v>
+        <v>0.169922536906819</v>
       </c>
       <c r="Z6">
-        <v>0.16998203548685636</v>
+        <v>0.16997861254704</v>
       </c>
       <c r="AA6">
-        <v>0.17000370725012892</v>
+        <v>0.170002939361745</v>
       </c>
       <c r="AB6">
-        <v>0.16997726243392708</v>
+        <v>0.169968814721522</v>
       </c>
       <c r="AC6">
-        <v>0.16993486915898537</v>
+        <v>0.169931872199628</v>
       </c>
       <c r="AD6">
-        <v>0.16984151253783697</v>
+        <v>0.169837070066534</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_bar.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_bar.xlsx
@@ -1159,91 +1159,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>15.3653545148719</v>
+        <v>2.93691712622856</v>
       </c>
       <c r="C2">
-        <v>15.1628100839438</v>
+        <v>2.81607473262677</v>
       </c>
       <c r="D2">
-        <v>15.1035239832309</v>
+        <v>2.76606865407216</v>
       </c>
       <c r="E2">
-        <v>15.1771132629994</v>
+        <v>2.74049145876704</v>
       </c>
       <c r="F2">
-        <v>15.2322328618772</v>
+        <v>2.71530968165729</v>
       </c>
       <c r="G2">
-        <v>15.1751782680656</v>
+        <v>2.67398272440304</v>
       </c>
       <c r="H2">
-        <v>15.1124251842753</v>
+        <v>2.6287454406253</v>
       </c>
       <c r="I2">
-        <v>15.0396342348947</v>
+        <v>2.60614002381782</v>
       </c>
       <c r="J2">
-        <v>15.0001627162917</v>
+        <v>2.59241095800179</v>
       </c>
       <c r="K2">
-        <v>14.9574040955311</v>
+        <v>2.57872082501781</v>
       </c>
       <c r="L2">
-        <v>14.9186811690777</v>
+        <v>2.56623369362173</v>
       </c>
       <c r="M2">
-        <v>14.8706431164571</v>
+        <v>2.552748715873</v>
       </c>
       <c r="N2">
-        <v>14.8189580471045</v>
+        <v>2.51556802740449</v>
       </c>
       <c r="O2">
-        <v>14.7680635433718</v>
+        <v>2.46569986202377</v>
       </c>
       <c r="P2">
-        <v>14.7215983596619</v>
+        <v>2.41756635222266</v>
       </c>
       <c r="Q2">
-        <v>14.6746751980551</v>
+        <v>2.37045340047381</v>
       </c>
       <c r="R2">
-        <v>14.6310743655037</v>
+        <v>2.32492813941118</v>
       </c>
       <c r="S2">
-        <v>14.5936100416327</v>
+        <v>2.28129139551715</v>
       </c>
       <c r="T2">
-        <v>14.5644375332282</v>
+        <v>2.23972161754873</v>
       </c>
       <c r="U2">
-        <v>14.5391466659568</v>
+        <v>2.19953712429269</v>
       </c>
       <c r="V2">
-        <v>14.5162166784985</v>
+        <v>2.16045354180412</v>
       </c>
       <c r="W2">
-        <v>14.5068808252369</v>
+        <v>2.12396132274222</v>
       </c>
       <c r="X2">
-        <v>14.5054515789483</v>
+        <v>2.08925708731948</v>
       </c>
       <c r="Y2">
-        <v>14.517675163684</v>
+        <v>2.05696705664333</v>
       </c>
       <c r="Z2">
-        <v>14.5352244746854</v>
+        <v>2.02590362135109</v>
       </c>
       <c r="AA2">
-        <v>14.5593290721038</v>
+        <v>1.99613930838994</v>
       </c>
       <c r="AB2">
-        <v>14.596248274313</v>
+        <v>1.9684419597018</v>
       </c>
       <c r="AC2">
-        <v>14.6385638899537</v>
+        <v>1.94184783233608</v>
       </c>
       <c r="AD2">
-        <v>14.6928339510826</v>
+        <v>0.784848519635498</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1251,183 +1251,180 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.00428077314586503</v>
+        <v>0.0174107203755628</v>
       </c>
       <c r="C3">
-        <v>0.00480233587470022</v>
+        <v>0.0201016509404726</v>
       </c>
       <c r="D3">
-        <v>0.00503331964122867</v>
+        <v>0.0213655229741569</v>
       </c>
       <c r="E3">
-        <v>0.00484652826011063</v>
+        <v>0.0208658050099303</v>
       </c>
       <c r="F3">
-        <v>0.00460343211245197</v>
+        <v>0.0200756496155962</v>
       </c>
       <c r="G3">
-        <v>0.0045851639412401</v>
+        <v>0.0202289682200405</v>
       </c>
       <c r="H3">
-        <v>0.0045640110015983</v>
+        <v>0.020397454389265</v>
       </c>
       <c r="I3">
-        <v>0.00456598125631447</v>
+        <v>0.020484119816178</v>
       </c>
       <c r="J3">
-        <v>0.00448363236356616</v>
+        <v>0.0201681362919968</v>
       </c>
       <c r="K3">
-        <v>0.00441579062987883</v>
+        <v>0.0199115018599077</v>
       </c>
       <c r="L3">
-        <v>0.00435298806680099</v>
+        <v>0.0196727624834704</v>
       </c>
       <c r="M3">
-        <v>0.00431501450460908</v>
+        <v>0.0195410359643192</v>
       </c>
       <c r="N3">
-        <v>0.00430159632865832</v>
+        <v>0.0196994858524693</v>
       </c>
       <c r="O3">
-        <v>0.00429699804324979</v>
+        <v>0.0200074680077551</v>
       </c>
       <c r="P3">
-        <v>0.00430474108344535</v>
+        <v>0.0203782660894666</v>
       </c>
       <c r="Q3">
-        <v>0.00431917150435388</v>
+        <v>0.0207864896572341</v>
       </c>
       <c r="R3">
-        <v>0.0043380625127836</v>
+        <v>0.0212229678802252</v>
       </c>
       <c r="S3">
-        <v>0.00436325963264025</v>
+        <v>0.0216988469269334</v>
       </c>
       <c r="T3">
-        <v>0.0043843132307487</v>
+        <v>0.0221638331903511</v>
       </c>
       <c r="U3">
-        <v>0.00440912816006803</v>
+        <v>0.0226570814249345</v>
       </c>
       <c r="V3">
-        <v>0.00443778393181558</v>
+        <v>0.0231802589834647</v>
       </c>
       <c r="W3">
-        <v>0.00445973805051925</v>
+        <v>0.0236799296660227</v>
       </c>
       <c r="X3">
-        <v>0.00447249069370574</v>
+        <v>0.0241397313035659</v>
       </c>
       <c r="Y3">
-        <v>0.00446994822739564</v>
+        <v>0.0245253857014175</v>
       </c>
       <c r="Z3">
-        <v>0.00445801354852142</v>
+        <v>0.0248649711219498</v>
       </c>
       <c r="AA3">
-        <v>0.00443541348219125</v>
+        <v>0.0251494353072223</v>
       </c>
       <c r="AB3">
-        <v>0.00440124749644417</v>
+        <v>0.0253710258179548</v>
       </c>
       <c r="AC3">
-        <v>0.00435069005452499</v>
+        <v>0.0254967619380203</v>
       </c>
       <c r="AD3">
-        <v>0.00428086823204116</v>
+        <v>0.0623010248366342</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.00574392253720654</v>
+        <v>0.0233616278523883</v>
       </c>
       <c r="C4">
-        <v>0.00624103635759426</v>
+        <v>0.0261237734386893</v>
       </c>
       <c r="D4">
-        <v>0.0063409394611897</v>
+        <v>0.0269161303856147</v>
       </c>
       <c r="E4">
-        <v>0.00624547615448755</v>
+        <v>0.0268887089148494</v>
       </c>
       <c r="F4">
-        <v>0.00614436243148716</v>
+        <v>0.0267956742431609</v>
       </c>
       <c r="G4">
-        <v>0.00616148161116911</v>
+        <v>0.0271834153146973</v>
       </c>
       <c r="H4">
-        <v>0.00618376642902613</v>
+        <v>0.0276364569773731</v>
       </c>
       <c r="I4">
-        <v>0.00621751874228356</v>
+        <v>0.0278933249452431</v>
       </c>
       <c r="J4">
-        <v>0.00621319501170015</v>
+        <v>0.0279480014514518</v>
       </c>
       <c r="K4">
-        <v>0.00621345266453712</v>
+        <v>0.0280174457206488</v>
       </c>
       <c r="L4">
-        <v>0.00621027728247867</v>
+        <v>0.0280665391358355</v>
       </c>
       <c r="M4">
-        <v>0.00621775582826268</v>
+        <v>0.0281578173439868</v>
       </c>
       <c r="N4">
-        <v>0.00623044935596716</v>
+        <v>0.0285328142310098</v>
       </c>
       <c r="O4">
-        <v>0.006242837694316</v>
+        <v>0.0290675895565852</v>
       </c>
       <c r="P4">
-        <v>0.00625166409485569</v>
+        <v>0.029594828575606</v>
       </c>
       <c r="Q4">
-        <v>0.00626220876078359</v>
+        <v>0.0301375709453198</v>
       </c>
       <c r="R4">
-        <v>0.00627123855365762</v>
+        <v>0.0306805847083339</v>
       </c>
       <c r="S4">
-        <v>0.00627560432332727</v>
+        <v>0.0312090934417946</v>
       </c>
       <c r="T4">
-        <v>0.00627267110713514</v>
+        <v>0.0317099688729898</v>
       </c>
       <c r="U4">
-        <v>0.00626677605729743</v>
+        <v>0.0322029322458677</v>
       </c>
       <c r="V4">
-        <v>0.00625913295238858</v>
+        <v>0.0326938681732859</v>
       </c>
       <c r="W4">
-        <v>0.00623894245889571</v>
+        <v>0.0331269946672791</v>
       </c>
       <c r="X4">
-        <v>0.00621229308575155</v>
+        <v>0.0335301057372997</v>
       </c>
       <c r="Y4">
-        <v>0.00617323030533129</v>
+        <v>0.0338708294950747</v>
       </c>
       <c r="Z4">
-        <v>0.00612970282472284</v>
+        <v>0.0341889682622026</v>
       </c>
       <c r="AA4">
-        <v>0.00608028074592286</v>
+        <v>0.0344760703558556</v>
       </c>
       <c r="AB4">
-        <v>0.00601967388525235</v>
+        <v>0.0347004574684324</v>
       </c>
       <c r="AC4">
-        <v>0.00595535065700856</v>
-      </c>
-      <c r="AD4">
-        <v>0.00588134422107777</v>
+        <v>0.0349007067973631</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1435,91 +1432,91 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>0.389139188041278</v>
+        <v>0.855977809072751</v>
       </c>
       <c r="C5">
-        <v>0.395105765156124</v>
+        <v>0.851263019296689</v>
       </c>
       <c r="D5">
-        <v>0.394191621485018</v>
+        <v>0.851184142158449</v>
       </c>
       <c r="E5">
-        <v>0.285962479742788</v>
+        <v>0.854051126013831</v>
       </c>
       <c r="F5">
-        <v>0.147022576973128</v>
+        <v>0.857170357562284</v>
       </c>
       <c r="G5">
-        <v>0.118983409807451</v>
+        <v>0.749712917055826</v>
       </c>
       <c r="H5">
-        <v>0.112710169800658</v>
+        <v>1.31007853471637e-7</v>
       </c>
       <c r="I5">
-        <v>0.111230888132597</v>
+        <v>1.31685171253556e-7</v>
       </c>
       <c r="J5">
-        <v>0.110636846318759</v>
+        <v>1.31899699335151e-7</v>
       </c>
       <c r="K5">
-        <v>0.110398060750788</v>
+        <v>1.32147186848787e-7</v>
       </c>
       <c r="L5">
-        <v>0.110234985632227</v>
+        <v>1.32374138481189e-7</v>
       </c>
       <c r="M5">
-        <v>0.110182222518397</v>
+        <v>1.3266346502261e-7</v>
       </c>
       <c r="N5">
-        <v>0.110199110973833</v>
+        <v>1.34243055491764e-7</v>
       </c>
       <c r="O5">
-        <v>0.110221459635502</v>
+        <v>1.3658846803124e-7</v>
       </c>
       <c r="P5">
-        <v>0.110249569998912</v>
+        <v>1.38979629946828e-7</v>
       </c>
       <c r="Q5">
-        <v>0.110316169304436</v>
+        <v>1.41446122536859e-7</v>
       </c>
       <c r="R5">
-        <v>0.110416683880001</v>
+        <v>1.4399058147728e-7</v>
       </c>
       <c r="S5">
-        <v>0.110534326514649</v>
+        <v>1.465980647734e-7</v>
       </c>
       <c r="T5">
-        <v>0.110651554543972</v>
+        <v>1.492514543921e-7</v>
       </c>
       <c r="U5">
-        <v>0.110781422071973</v>
+        <v>1.51966372705659e-7</v>
       </c>
       <c r="V5">
-        <v>0.110920192707917</v>
+        <v>1.54742024277244e-7</v>
       </c>
       <c r="W5">
-        <v>0.111039361503014</v>
+        <v>1.57549009820717e-7</v>
       </c>
       <c r="X5">
-        <v>0.111168116532681</v>
+        <v>1.60418343296072e-7</v>
       </c>
       <c r="Y5">
-        <v>0.111279358374092</v>
+        <v>1.63318343711911e-7</v>
       </c>
       <c r="Z5">
-        <v>0.111390896173796</v>
+        <v>1.66267987623986e-7</v>
       </c>
       <c r="AA5">
-        <v>0.11148724513363</v>
+        <v>1.69252101982063e-7</v>
       </c>
       <c r="AB5">
-        <v>0.111547893339825</v>
+        <v>1.7226088419158e-7</v>
       </c>
       <c r="AC5">
-        <v>0.111625831488095</v>
+        <v>1.75325825842697e-7</v>
       </c>
       <c r="AD5">
-        <v>0.111674857613415</v>
+        <v>0.474506366225413</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1527,91 +1524,91 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.44716388372435</v>
+        <v>0.944750157300702</v>
       </c>
       <c r="C6">
-        <v>0.454149137388418</v>
+        <v>0.94548844367585</v>
       </c>
       <c r="D6">
-        <v>0.453565880587436</v>
+        <v>0.947465795518221</v>
       </c>
       <c r="E6">
-        <v>0.345054484157386</v>
+        <v>0.949805639938611</v>
       </c>
       <c r="F6">
-        <v>0.205770371517067</v>
+        <v>0.952041681421042</v>
       </c>
       <c r="G6">
-        <v>0.17773005535986</v>
+        <v>0.845125300590563</v>
       </c>
       <c r="H6">
-        <v>0.171457947231282</v>
+        <v>0.0960340423744916</v>
       </c>
       <c r="I6">
-        <v>0.170014388131195</v>
+        <v>0.0963775764465923</v>
       </c>
       <c r="J6">
-        <v>0.169333673694025</v>
+        <v>0.0961162696431479</v>
       </c>
       <c r="K6">
-        <v>0.169027304045204</v>
+        <v>0.0959290797277433</v>
       </c>
       <c r="L6">
-        <v>0.168798250981507</v>
+        <v>0.0957394339934444</v>
       </c>
       <c r="M6">
-        <v>0.168714992851269</v>
+        <v>0.095698985971771</v>
       </c>
       <c r="N6">
-        <v>0.168731156658459</v>
+        <v>0.0962324343265347</v>
       </c>
       <c r="O6">
-        <v>0.168761295373068</v>
+        <v>0.0970751941528084</v>
       </c>
       <c r="P6">
-        <v>0.168805975177213</v>
+        <v>0.0979732336447026</v>
       </c>
       <c r="Q6">
-        <v>0.168897549569573</v>
+        <v>0.0989242020486764</v>
       </c>
       <c r="R6">
-        <v>0.169025984946442</v>
+        <v>0.0999036965791406</v>
       </c>
       <c r="S6">
-        <v>0.169173190470616</v>
+        <v>0.100908086966793</v>
       </c>
       <c r="T6">
-        <v>0.169308538881856</v>
+        <v>0.101873951314795</v>
       </c>
       <c r="U6">
-        <v>0.169457326289339</v>
+        <v>0.102860165637175</v>
       </c>
       <c r="V6">
-        <v>0.169617109592121</v>
+        <v>0.103874281898775</v>
       </c>
       <c r="W6">
-        <v>0.169738042012429</v>
+        <v>0.104807081882312</v>
       </c>
       <c r="X6">
-        <v>0.169852900312138</v>
+        <v>0.105669997459209</v>
       </c>
       <c r="Y6">
-        <v>0.169922536906819</v>
+        <v>0.106396378514836</v>
       </c>
       <c r="Z6">
-        <v>0.16997861254704</v>
+        <v>0.10705410565214</v>
       </c>
       <c r="AA6">
-        <v>0.170002939361745</v>
+        <v>0.10762567491518</v>
       </c>
       <c r="AB6">
-        <v>0.169968814721522</v>
+        <v>0.108071655547271</v>
       </c>
       <c r="AC6">
-        <v>0.169931872199628</v>
+        <v>0.108397644061209</v>
       </c>
       <c r="AD6">
-        <v>0.169837070066534</v>
+        <v>0.584807391062041</v>
       </c>
     </row>
   </sheetData>

--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_bar.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_bar.xlsx
@@ -1159,91 +1159,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.93691712622856</v>
+        <v>16.520790954756</v>
       </c>
       <c r="C2">
-        <v>2.81607473262677</v>
+        <v>18.679935317716</v>
       </c>
       <c r="D2">
-        <v>2.76606865407216</v>
+        <v>18.7583079379726</v>
       </c>
       <c r="E2">
-        <v>2.74049145876704</v>
+        <v>18.9761748239746</v>
       </c>
       <c r="F2">
-        <v>2.71530968165729</v>
+        <v>19.149055115403</v>
       </c>
       <c r="G2">
-        <v>2.67398272440304</v>
+        <v>19.1388252718403</v>
       </c>
       <c r="H2">
-        <v>2.6287454406253</v>
+        <v>19.0809337886373</v>
       </c>
       <c r="I2">
-        <v>2.60614002381782</v>
+        <v>18.9785974228712</v>
       </c>
       <c r="J2">
-        <v>2.59241095800179</v>
+        <v>18.8930571217171</v>
       </c>
       <c r="K2">
-        <v>2.57872082501781</v>
+        <v>18.7831231551453</v>
       </c>
       <c r="L2">
-        <v>2.56623369362173</v>
+        <v>18.6617754968806</v>
       </c>
       <c r="M2">
-        <v>2.552748715873</v>
+        <v>18.5153275520448</v>
       </c>
       <c r="N2">
-        <v>2.51556802740449</v>
+        <v>18.3533553938004</v>
       </c>
       <c r="O2">
-        <v>2.46569986202377</v>
+        <v>18.1833370394544</v>
       </c>
       <c r="P2">
-        <v>2.41756635222266</v>
+        <v>18.0113110182914</v>
       </c>
       <c r="Q2">
-        <v>2.37045340047381</v>
+        <v>17.8325685888653</v>
       </c>
       <c r="R2">
-        <v>2.32492813941118</v>
+        <v>17.6527931584042</v>
       </c>
       <c r="S2">
-        <v>2.28129139551715</v>
+        <v>17.4761987682515</v>
       </c>
       <c r="T2">
-        <v>2.23972161754873</v>
+        <v>17.3059659739317</v>
       </c>
       <c r="U2">
-        <v>2.19953712429269</v>
+        <v>17.1373396263647</v>
       </c>
       <c r="V2">
-        <v>2.16045354180412</v>
+        <v>16.969005358751</v>
       </c>
       <c r="W2">
-        <v>2.12396132274222</v>
+        <v>16.8144036831868</v>
       </c>
       <c r="X2">
-        <v>2.08925708731948</v>
+        <v>16.6777615465017</v>
       </c>
       <c r="Y2">
-        <v>2.05696705664333</v>
+        <v>16.5712021683159</v>
       </c>
       <c r="Z2">
-        <v>2.02590362135109</v>
+        <v>16.4814507398079</v>
       </c>
       <c r="AA2">
-        <v>1.99613930838994</v>
+        <v>16.4086613990831</v>
       </c>
       <c r="AB2">
-        <v>1.9684419597018</v>
+        <v>16.3582166727006</v>
       </c>
       <c r="AC2">
-        <v>1.94184783233608</v>
+        <v>16.3200194524417</v>
       </c>
       <c r="AD2">
-        <v>0.784848519635498</v>
+        <v>16.785388592466</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1251,180 +1251,183 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.0174107203755628</v>
+        <v>0.00397457135651037</v>
       </c>
       <c r="C3">
-        <v>0.0201016509404726</v>
+        <v>0.0038914659701434</v>
       </c>
       <c r="D3">
-        <v>0.0213655229741569</v>
+        <v>0.00404571721784025</v>
       </c>
       <c r="E3">
-        <v>0.0208658050099303</v>
+        <v>0.0038696138302522</v>
       </c>
       <c r="F3">
-        <v>0.0200756496155962</v>
+        <v>0.00365556346452248</v>
       </c>
       <c r="G3">
-        <v>0.0202289682200405</v>
+        <v>0.00362935753573157</v>
       </c>
       <c r="H3">
-        <v>0.020397454389265</v>
+        <v>0.00360859032579145</v>
       </c>
       <c r="I3">
-        <v>0.020484119816178</v>
+        <v>0.00361213224281989</v>
       </c>
       <c r="J3">
-        <v>0.0201681362919968</v>
+        <v>0.0035536944171053</v>
       </c>
       <c r="K3">
-        <v>0.0199115018599077</v>
+        <v>0.00351037281465688</v>
       </c>
       <c r="L3">
-        <v>0.0196727624834704</v>
+        <v>0.00347393183792191</v>
       </c>
       <c r="M3">
-        <v>0.0195410359643192</v>
+        <v>0.00345968813675198</v>
       </c>
       <c r="N3">
-        <v>0.0196994858524693</v>
+        <v>0.00346727417770509</v>
       </c>
       <c r="O3">
-        <v>0.0200074680077551</v>
+        <v>0.00348394632247006</v>
       </c>
       <c r="P3">
-        <v>0.0203782660894666</v>
+        <v>0.00351247310470034</v>
       </c>
       <c r="Q3">
-        <v>0.0207864896572341</v>
+        <v>0.00354822682179432</v>
       </c>
       <c r="R3">
-        <v>0.0212229678802252</v>
+        <v>0.00358934265557869</v>
       </c>
       <c r="S3">
-        <v>0.0216988469269334</v>
+        <v>0.00363733368744859</v>
       </c>
       <c r="T3">
-        <v>0.0221638331903511</v>
+        <v>0.00368345841430676</v>
       </c>
       <c r="U3">
-        <v>0.0226570814249345</v>
+        <v>0.00373426006472572</v>
       </c>
       <c r="V3">
-        <v>0.0231802589834647</v>
+        <v>0.00378982826647757</v>
       </c>
       <c r="W3">
-        <v>0.0236799296660227</v>
+        <v>0.00384112326417155</v>
       </c>
       <c r="X3">
-        <v>0.0241397313035659</v>
+        <v>0.00388328493142958</v>
       </c>
       <c r="Y3">
-        <v>0.0245253857014175</v>
+        <v>0.00390932582594622</v>
       </c>
       <c r="Z3">
-        <v>0.0248649711219498</v>
+        <v>0.00392485850905453</v>
       </c>
       <c r="AA3">
-        <v>0.0251494353072223</v>
+        <v>0.00392878835345695</v>
       </c>
       <c r="AB3">
-        <v>0.0253710258179548</v>
+        <v>0.00392046324643189</v>
       </c>
       <c r="AC3">
-        <v>0.0254967619380203</v>
+        <v>0.00389576053180779</v>
       </c>
       <c r="AD3">
-        <v>0.0623010248366342</v>
+        <v>0.00374078145286605</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B4">
-        <v>0.0233616278523883</v>
+        <v>0.00533306232600706</v>
       </c>
       <c r="C4">
-        <v>0.0261237734386893</v>
+        <v>0.0050572848792093</v>
       </c>
       <c r="D4">
-        <v>0.0269161303856147</v>
+        <v>0.00509676511407799</v>
       </c>
       <c r="E4">
-        <v>0.0268887089148494</v>
+        <v>0.00498657587593715</v>
       </c>
       <c r="F4">
-        <v>0.0267956742431609</v>
+        <v>0.00487920887473788</v>
       </c>
       <c r="G4">
-        <v>0.0271834153146973</v>
+        <v>0.004877081823757</v>
       </c>
       <c r="H4">
-        <v>0.0276364569773731</v>
+        <v>0.00488926948355802</v>
       </c>
       <c r="I4">
-        <v>0.0278933249452431</v>
+        <v>0.00491865793103743</v>
       </c>
       <c r="J4">
-        <v>0.0279480014514518</v>
+        <v>0.00492453319877092</v>
       </c>
       <c r="K4">
-        <v>0.0280174457206488</v>
+        <v>0.00493944055480434</v>
       </c>
       <c r="L4">
-        <v>0.0280665391358355</v>
+        <v>0.00495615417337466</v>
       </c>
       <c r="M4">
-        <v>0.0281578173439868</v>
+        <v>0.00498526622640164</v>
       </c>
       <c r="N4">
-        <v>0.0285328142310098</v>
+        <v>0.00502201380997138</v>
       </c>
       <c r="O4">
-        <v>0.0290675895565852</v>
+        <v>0.00506160608126331</v>
       </c>
       <c r="P4">
-        <v>0.029594828575606</v>
+        <v>0.00510107380842204</v>
       </c>
       <c r="Q4">
-        <v>0.0301375709453198</v>
+        <v>0.00514444426814018</v>
       </c>
       <c r="R4">
-        <v>0.0306805847083339</v>
+        <v>0.00518886576152844</v>
       </c>
       <c r="S4">
-        <v>0.0312090934417946</v>
+        <v>0.00523151701621839</v>
       </c>
       <c r="T4">
-        <v>0.0317099688729898</v>
+        <v>0.00526995265933822</v>
       </c>
       <c r="U4">
-        <v>0.0322029322458677</v>
+        <v>0.00530757345120675</v>
       </c>
       <c r="V4">
-        <v>0.0326938681732859</v>
+        <v>0.00534524423700338</v>
       </c>
       <c r="W4">
-        <v>0.0331269946672791</v>
+        <v>0.00537353242527367</v>
       </c>
       <c r="X4">
-        <v>0.0335301057372997</v>
+        <v>0.00539388581925362</v>
       </c>
       <c r="Y4">
-        <v>0.0338708294950747</v>
+        <v>0.0053989816960825</v>
       </c>
       <c r="Z4">
-        <v>0.0341889682622026</v>
+        <v>0.00539662251532824</v>
       </c>
       <c r="AA4">
-        <v>0.0344760703558556</v>
+        <v>0.00538577435367506</v>
       </c>
       <c r="AB4">
-        <v>0.0347004574684324</v>
+        <v>0.00536209568803037</v>
       </c>
       <c r="AC4">
-        <v>0.0349007067973631</v>
+        <v>0.00533262993959302</v>
+      </c>
+      <c r="AD4">
+        <v>0.00513933673908912</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1432,91 +1435,91 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>0.855977809072751</v>
+        <v>0.361923051904156</v>
       </c>
       <c r="C5">
-        <v>0.851263019296689</v>
+        <v>0.325046110616119</v>
       </c>
       <c r="D5">
-        <v>0.851184142158449</v>
+        <v>0.321666056269025</v>
       </c>
       <c r="E5">
-        <v>0.854051126013831</v>
+        <v>0.31614084409481</v>
       </c>
       <c r="F5">
-        <v>0.857170357562284</v>
+        <v>0.311597145387758</v>
       </c>
       <c r="G5">
-        <v>0.749712917055826</v>
+        <v>0.310209696188326</v>
       </c>
       <c r="H5">
-        <v>1.31007853471637e-7</v>
+        <v>0.309594741245043</v>
       </c>
       <c r="I5">
-        <v>1.31685171253556e-7</v>
+        <v>0.309761696875423</v>
       </c>
       <c r="J5">
-        <v>1.31899699335151e-7</v>
+        <v>0.309641656016453</v>
       </c>
       <c r="K5">
-        <v>1.32147186848787e-7</v>
+        <v>0.310029776108984</v>
       </c>
       <c r="L5">
-        <v>1.32374138481189e-7</v>
+        <v>0.310729217465898</v>
       </c>
       <c r="M5">
-        <v>1.3266346502261e-7</v>
+        <v>0.311901293375393</v>
       </c>
       <c r="N5">
-        <v>1.34243055491764e-7</v>
+        <v>0.31345691183293</v>
       </c>
       <c r="O5">
-        <v>1.3658846803124e-7</v>
+        <v>0.315240476651376</v>
       </c>
       <c r="P5">
-        <v>1.38979629946828e-7</v>
+        <v>0.317218496169961</v>
       </c>
       <c r="Q5">
-        <v>1.41446122536859e-7</v>
+        <v>0.319455777791555</v>
       </c>
       <c r="R5">
-        <v>1.4399058147728e-7</v>
+        <v>0.321938909381343</v>
       </c>
       <c r="S5">
-        <v>1.465980647734e-7</v>
+        <v>0.324607175818044</v>
       </c>
       <c r="T5">
-        <v>1.492514543921e-7</v>
+        <v>0.327398075896934</v>
       </c>
       <c r="U5">
-        <v>1.51966372705659e-7</v>
+        <v>0.330344728999116</v>
       </c>
       <c r="V5">
-        <v>1.54742024277244e-7</v>
+        <v>0.333434006496015</v>
       </c>
       <c r="W5">
-        <v>1.57549009820717e-7</v>
+        <v>0.360945390716044</v>
       </c>
       <c r="X5">
-        <v>1.60418343296072e-7</v>
+        <v>0.398642002085249</v>
       </c>
       <c r="Y5">
-        <v>1.63318343711911e-7</v>
+        <v>0.415412605664448</v>
       </c>
       <c r="Z5">
-        <v>1.66267987623986e-7</v>
+        <v>0.435281910815633</v>
       </c>
       <c r="AA5">
-        <v>1.69252101982063e-7</v>
+        <v>0.456940237931306</v>
       </c>
       <c r="AB5">
-        <v>1.7226088419158e-7</v>
+        <v>0.479513817893113</v>
       </c>
       <c r="AC5">
-        <v>1.75325825842697e-7</v>
+        <v>1.75475892129223</v>
       </c>
       <c r="AD5">
-        <v>0.474506366225413</v>
+        <v>0.357557505356463</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1524,91 +1527,91 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.944750157300702</v>
+        <v>0.419230685586674</v>
       </c>
       <c r="C6">
-        <v>0.94548844367585</v>
+        <v>0.381994861465472</v>
       </c>
       <c r="D6">
-        <v>0.947465795518221</v>
+        <v>0.378808538600943</v>
       </c>
       <c r="E6">
-        <v>0.949805639938611</v>
+        <v>0.372997033801</v>
       </c>
       <c r="F6">
-        <v>0.952041681421042</v>
+        <v>0.368131917727018</v>
       </c>
       <c r="G6">
-        <v>0.845125300590563</v>
+        <v>0.366716135547814</v>
       </c>
       <c r="H6">
-        <v>0.0960340423744916</v>
+        <v>0.366092601054393</v>
       </c>
       <c r="I6">
-        <v>0.0963775764465923</v>
+        <v>0.366292487049281</v>
       </c>
       <c r="J6">
-        <v>0.0961162696431479</v>
+        <v>0.366119883632329</v>
       </c>
       <c r="K6">
-        <v>0.0959290797277433</v>
+        <v>0.366479589478445</v>
       </c>
       <c r="L6">
-        <v>0.0957394339934444</v>
+        <v>0.367159303477194</v>
       </c>
       <c r="M6">
-        <v>0.095698985971771</v>
+        <v>0.368346247738546</v>
       </c>
       <c r="N6">
-        <v>0.0962324343265347</v>
+        <v>0.369946199820607</v>
       </c>
       <c r="O6">
-        <v>0.0970751941528084</v>
+        <v>0.37178602905511</v>
       </c>
       <c r="P6">
-        <v>0.0979732336447026</v>
+        <v>0.373832043083083</v>
       </c>
       <c r="Q6">
-        <v>0.0989242020486764</v>
+        <v>0.376148448881489</v>
       </c>
       <c r="R6">
-        <v>0.0999036965791406</v>
+        <v>0.378717117798451</v>
       </c>
       <c r="S6">
-        <v>0.100908086966793</v>
+        <v>0.381476026521711</v>
       </c>
       <c r="T6">
-        <v>0.101873951314795</v>
+        <v>0.384351486970579</v>
       </c>
       <c r="U6">
-        <v>0.102860165637175</v>
+        <v>0.387386562515048</v>
       </c>
       <c r="V6">
-        <v>0.103874281898775</v>
+        <v>0.390569078999496</v>
       </c>
       <c r="W6">
-        <v>0.104807081882312</v>
+        <v>0.418160046405489</v>
       </c>
       <c r="X6">
-        <v>0.105669997459209</v>
+        <v>0.455919172835932</v>
       </c>
       <c r="Y6">
-        <v>0.106396378514836</v>
+        <v>0.472720913186476</v>
       </c>
       <c r="Z6">
-        <v>0.10705410565214</v>
+        <v>0.492603391840016</v>
       </c>
       <c r="AA6">
-        <v>0.10762567491518</v>
+        <v>0.514254800638438</v>
       </c>
       <c r="AB6">
-        <v>0.108071655547271</v>
+        <v>0.536796376827576</v>
       </c>
       <c r="AC6">
-        <v>0.108397644061209</v>
+        <v>1.81198731176363</v>
       </c>
       <c r="AD6">
-        <v>0.584807391062041</v>
+        <v>0.414437623548418</v>
       </c>
     </row>
   </sheetData>
